--- a/study_1/results/result_summary.xlsx
+++ b/study_1/results/result_summary.xlsx
@@ -610,13 +610,13 @@
         <v>254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4240498453831956</v>
+        <v>0.4220813414461877</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4050231389994638</v>
+        <v>0.4030546350624559</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2440944881889764</v>
+        <v>0.2401574803149606</v>
       </c>
       <c r="F3" t="n">
         <v>0.4173228346456692</v>
@@ -646,7 +646,7 @@
         <v>0.8346456692913385</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>0.6169291338582678</v>
+        <v>0.6165354330708663</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>0</v>
@@ -1679,13 +1679,13 @@
         <v>54</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4420676012695276</v>
+        <v>0.4328083420102683</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4350275622485593</v>
+        <v>0.4257683029893001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="J12" t="n">
         <v>0.4444444444444444</v>
@@ -1715,7 +1715,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="S12" s="3" t="n">
-        <v>0.6092592592592593</v>
+        <v>0.6074074074074074</v>
       </c>
       <c r="T12" t="n">
         <v>54</v>
@@ -2954,13 +2954,13 @@
         <v>81</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3743838853171349</v>
+        <v>0.3682110458109621</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3661310421921213</v>
+        <v>0.3599582026859484</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1604938271604938</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="J29" t="n">
         <v>0.345679012345679</v>
@@ -2990,7 +2990,7 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="S29" s="3" t="n">
-        <v>0.6271604938271604</v>
+        <v>0.625925925925926</v>
       </c>
       <c r="T29" t="n">
         <v>81</v>
@@ -3322,56 +3322,56 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>BLIP_results_with_details.csv</t>
+          <t>LUCENE_results_with_details.csv</t>
         </is>
       </c>
       <c r="F34" s="3" t="n">
         <v>150</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4094315262480897</v>
+        <v>0.4087777777777778</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4001518317439008</v>
+        <v>0.362049330055909</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J34" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="K34" t="n">
         <v>0.52</v>
       </c>
       <c r="L34" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6466666666666666</v>
+        <v>0.5533333333333333</v>
       </c>
       <c r="N34" t="n">
-        <v>0.72</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>0.76</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P34" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S34" s="3" t="n">
-        <v>0.6266666666666666</v>
+        <v>0.5173333333333334</v>
       </c>
       <c r="T34" t="n">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
@@ -3397,56 +3397,56 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>LUCENE_results_with_details.csv</t>
+          <t>BLIP_results_with_details.csv</t>
         </is>
       </c>
       <c r="F35" s="3" t="n">
         <v>150</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4087777777777778</v>
+        <v>0.4060981929147563</v>
       </c>
       <c r="H35" t="n">
-        <v>0.362049330055909</v>
+        <v>0.3968184984105674</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3</v>
+        <v>0.1933333333333333</v>
       </c>
       <c r="J35" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="K35" t="n">
         <v>0.52</v>
       </c>
       <c r="L35" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="M35" t="n">
-        <v>0.5533333333333333</v>
+        <v>0.6466666666666666</v>
       </c>
       <c r="N35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="O35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="P35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="S35" s="3" t="n">
-        <v>0.5173333333333334</v>
+        <v>0.6259999999999999</v>
       </c>
       <c r="T35" t="n">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="U35" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4979,13 +4979,13 @@
         <v>8</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3945932539682539</v>
+        <v>0.3320932539682539</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3803078389475448</v>
+        <v>0.3178078389475448</v>
       </c>
       <c r="I56" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0.5</v>
@@ -5015,7 +5015,7 @@
         <v>0.875</v>
       </c>
       <c r="S56" s="3" t="n">
-        <v>0.65</v>
+        <v>0.6375</v>
       </c>
       <c r="T56" t="n">
         <v>8</v>
@@ -5204,13 +5204,13 @@
         <v>16</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5291418650793651</v>
+        <v>0.497891865079365</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4824363146272828</v>
+        <v>0.4511863146272828</v>
       </c>
       <c r="I59" t="n">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="J59" t="n">
         <v>0.625</v>
@@ -5240,7 +5240,7 @@
         <v>0.9375</v>
       </c>
       <c r="S59" s="3" t="n">
-        <v>0.74375</v>
+        <v>0.7375</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -7379,13 +7379,13 @@
         <v>124</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4524251062557514</v>
+        <v>0.4483928481912352</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4202040818466134</v>
+        <v>0.4161718237820972</v>
       </c>
       <c r="I88" t="n">
-        <v>0.2580645161290322</v>
+        <v>0.25</v>
       </c>
       <c r="J88" t="n">
         <v>0.4435483870967742</v>
@@ -7415,7 +7415,7 @@
         <v>0.8951612903225806</v>
       </c>
       <c r="S88" s="3" t="n">
-        <v>0.6717741935483871</v>
+        <v>0.6709677419354839</v>
       </c>
       <c r="T88" t="n">
         <v>124</v>
